--- a/Spatial_Data/Vaccination_Data/References_County_Data.xlsx
+++ b/Spatial_Data/Vaccination_Data/References_County_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/US_Childhood_Vaccination/Spatial_Data/Vaccination_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{5F34421A-294B-498D-9A3C-F4B82A0DFBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7362A22A-B511-4414-8BEA-DB5FD7E73D29}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{5F34421A-294B-498D-9A3C-F4B82A0DFBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25AC45F2-600D-44B2-B449-7A02F9F4DD8F}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{AEC2E569-48E1-40BB-98D9-369203CF7215}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AEC2E569-48E1-40BB-98D9-369203CF7215}"/>
   </bookViews>
   <sheets>
     <sheet name="County_Level_Data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="138">
   <si>
     <t>2017-18</t>
   </si>
@@ -443,6 +443,15 @@
   </si>
   <si>
     <t>https://www.pewresearch.org/short-reads/2019/06/28/nearly-all-states-allow-religious-exemptions-for-vaccinations/</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>https://www.immunize.org/official-guidance/state-policies/vaccine-requirements/exemptions-childcare-school-2023/</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/phlp/docs/school-vaccinations.pdf</t>
   </si>
 </sst>
 </file>
@@ -505,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,12 +528,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -720,16 +749,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B07001A0-6202-4065-9E75-08D0558C2A7B}" name="Table4" displayName="Table4" ref="A1:G51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G51" xr:uid="{B07001A0-6202-4065-9E75-08D0558C2A7B}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F51328CF-FE59-40CB-B4C0-66C9136CCD79}" name="State" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{2F5436EB-0CD8-4CAE-90E9-E1ADD32F843B}" name="2017-18" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6982504F-FE3A-4DDD-B38C-EDC7C6F31AA2}" name="2018-19" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F32CCBF7-4977-4BF0-BE70-852B6C1BC984}" name="2019-20" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{107D9732-F06D-4D61-9F06-6C9EE369DEEF}" name="2020-21" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5154B5FB-C4DA-405E-A777-ED2DE20E4788}" name="2021-22" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{3B231F2C-CB26-4F9F-9CB5-71BA5EE2F050}" name="2022-23" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B07001A0-6202-4065-9E75-08D0558C2A7B}" name="Table4" displayName="Table4" ref="A1:H51" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H51" xr:uid="{B07001A0-6202-4065-9E75-08D0558C2A7B}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F51328CF-FE59-40CB-B4C0-66C9136CCD79}" name="State" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2F5436EB-0CD8-4CAE-90E9-E1ADD32F843B}" name="2017-18" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{6982504F-FE3A-4DDD-B38C-EDC7C6F31AA2}" name="2018-19" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F32CCBF7-4977-4BF0-BE70-852B6C1BC984}" name="2019-20" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{107D9732-F06D-4D61-9F06-6C9EE369DEEF}" name="2020-21" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5154B5FB-C4DA-405E-A777-ED2DE20E4788}" name="2021-22" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{3B231F2C-CB26-4F9F-9CB5-71BA5EE2F050}" name="2022-23" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{9575D8B6-7B01-4A22-A0B3-ED89A700C671}" name="2023-24" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -747,8 +777,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6EE01B6D-D86E-44A4-839A-16439892AC71}" name="Table2" displayName="Table2" ref="A1:A6" totalsRowShown="0">
-  <autoFilter ref="A1:A6" xr:uid="{6EE01B6D-D86E-44A4-839A-16439892AC71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6EE01B6D-D86E-44A4-839A-16439892AC71}" name="Table2" displayName="Table2" ref="A1:A8" totalsRowShown="0">
+  <autoFilter ref="A1:A8" xr:uid="{6EE01B6D-D86E-44A4-839A-16439892AC71}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{F1AF173F-54CB-4A5D-B318-3B86169945D5}" name="Reference"/>
   </tableColumns>
@@ -1073,13 +1103,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B4BEFA-FB15-428C-A710-3464ABE15A30}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,9 +1121,10 @@
     <col min="5" max="5" width="173" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="182.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="187.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1115,8 +1146,11 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1138,8 +1172,9 @@
       <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1161,8 +1196,9 @@
       <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1184,8 +1220,9 @@
       <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1244,9 @@
       <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1230,8 +1268,9 @@
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1253,8 +1292,9 @@
       <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,8 +1316,9 @@
       <c r="G8" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1299,8 +1340,9 @@
       <c r="G9" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1322,8 +1364,9 @@
       <c r="G10" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1345,8 +1388,9 @@
       <c r="G11" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1368,8 +1412,9 @@
       <c r="G12" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1391,8 +1436,9 @@
       <c r="G13" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1414,8 +1460,9 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1437,8 +1484,9 @@
       <c r="G15" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1460,8 +1508,9 @@
       <c r="G16" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1483,8 +1532,9 @@
       <c r="G17" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,8 +1556,9 @@
       <c r="G18" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1580,9 @@
       <c r="G19" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1552,8 +1604,9 @@
       <c r="G20" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,8 +1628,9 @@
       <c r="G21" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1598,8 +1652,9 @@
       <c r="G22" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1621,8 +1676,9 @@
       <c r="G23" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1644,8 +1700,9 @@
       <c r="G24" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1667,8 +1724,9 @@
       <c r="G25" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1748,9 @@
       <c r="G26" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1713,8 +1772,9 @@
       <c r="G27" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1736,8 +1796,9 @@
       <c r="G28" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1759,8 +1820,9 @@
       <c r="G29" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1782,8 +1844,9 @@
       <c r="G30" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1805,8 +1868,9 @@
       <c r="G31" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1828,8 +1892,9 @@
       <c r="G32" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1851,8 +1916,9 @@
       <c r="G33" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1874,8 +1940,9 @@
       <c r="G34" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1897,8 +1964,9 @@
       <c r="G35" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -1920,8 +1988,9 @@
       <c r="G36" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -1943,8 +2012,9 @@
       <c r="G37" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -1966,8 +2036,9 @@
       <c r="G38" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -1989,8 +2060,9 @@
       <c r="G39" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2012,8 +2084,9 @@
       <c r="G40" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -2035,8 +2108,9 @@
       <c r="G41" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -2058,8 +2132,9 @@
       <c r="G42" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -2081,8 +2156,9 @@
       <c r="G43" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -2104,8 +2180,9 @@
       <c r="G44" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -2127,8 +2204,9 @@
       <c r="G45" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -2150,8 +2228,9 @@
       <c r="G46" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -2173,8 +2252,9 @@
       <c r="G47" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -2196,8 +2276,9 @@
       <c r="G48" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -2219,8 +2300,9 @@
       <c r="G49" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -2242,8 +2324,9 @@
       <c r="G50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -2265,6 +2348,7 @@
       <c r="G51" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2358,8 +2442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FA9DD4-7EEC-4B51-8BA8-E297158E8D55}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,24 +2504,27 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{C4584243-C60F-48F1-8A7E-C7A2754A6ABB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C9D5C1-EBC6-4DA0-BCE5-E06544689F72}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,34 +2538,53 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{9471880D-850B-44C8-9C35-4B9B69A557AD}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{796B05FA-91F7-40F0-AF65-7183E736310D}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{41418DF4-62CD-4D44-888A-0B4E49FDD87C}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{6E0DC307-5089-4FEE-B141-BB504556676B}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{3D4774AE-C40C-434A-909F-73B747358EA8}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{234D42D1-9107-4EE3-860E-65DAB4DC5FCC}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{EECCF081-32B1-40A2-BA6E-BF46F7BD9C84}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>